--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Adam11</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam11</t>
-  </si>
-  <si>
-    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1597026666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="H2">
-        <v>0.479108</v>
+        <v>0.340502</v>
       </c>
       <c r="I2">
-        <v>0.04388290247716727</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="J2">
-        <v>0.06180863149382944</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.05878373018622223</v>
+        <v>0.05751249031</v>
       </c>
       <c r="R2">
-        <v>0.529053571676</v>
+        <v>0.51761241279</v>
       </c>
       <c r="S2">
-        <v>0.0001208498379717835</v>
+        <v>0.0004146842957545704</v>
       </c>
       <c r="T2">
-        <v>0.0001715352537606564</v>
+        <v>0.0004946278455788063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1597026666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="H3">
-        <v>0.479108</v>
+        <v>0.340502</v>
       </c>
       <c r="I3">
-        <v>0.04388290247716727</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="J3">
-        <v>0.06180863149382944</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>10.766443588908</v>
+        <v>10.00306281162955</v>
       </c>
       <c r="R3">
-        <v>96.89799230017201</v>
+        <v>90.02756530466598</v>
       </c>
       <c r="S3">
-        <v>0.02213406599292056</v>
+        <v>0.07212542936448153</v>
       </c>
       <c r="T3">
-        <v>0.03141727527791331</v>
+        <v>0.086029893350758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1597026666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="H4">
-        <v>0.479108</v>
+        <v>0.340502</v>
       </c>
       <c r="I4">
-        <v>0.04388290247716727</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="J4">
-        <v>0.06180863149382944</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>0.4925726915293334</v>
+        <v>0.1786715577096666</v>
       </c>
       <c r="R4">
-        <v>2.955436149176</v>
+        <v>1.072029346258</v>
       </c>
       <c r="S4">
-        <v>0.00101264975482276</v>
+        <v>0.001288281705084197</v>
       </c>
       <c r="T4">
-        <v>0.0009582422593165911</v>
+        <v>0.001024425907946647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1597026666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="H5">
-        <v>0.479108</v>
+        <v>0.340502</v>
       </c>
       <c r="I5">
-        <v>0.04388290247716727</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="J5">
-        <v>0.06180863149382944</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>10.02770398259156</v>
+        <v>8.180406945764442</v>
       </c>
       <c r="R5">
-        <v>90.249335843324</v>
+        <v>73.62366251187999</v>
       </c>
       <c r="S5">
-        <v>0.02061533689145217</v>
+        <v>0.05898347080791056</v>
       </c>
       <c r="T5">
-        <v>0.02926157870283888</v>
+        <v>0.07035440548186149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,40 +794,40 @@
         <v>0.549087</v>
       </c>
       <c r="I6">
-        <v>0.05029248368317861</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="J6">
-        <v>0.07083646284564717</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>0.06736974138766667</v>
+        <v>0.09274353973500001</v>
       </c>
       <c r="R6">
-        <v>0.606327672489</v>
+        <v>0.834691857615</v>
       </c>
       <c r="S6">
-        <v>0.0001385012877731381</v>
+        <v>0.000668711948543591</v>
       </c>
       <c r="T6">
-        <v>0.0001965898667558829</v>
+        <v>0.0007976273849943026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,10 +856,10 @@
         <v>0.549087</v>
       </c>
       <c r="I7">
-        <v>0.05029248368317861</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="J7">
-        <v>0.07083646284564717</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>12.339001250037</v>
+        <v>16.13074739663566</v>
       </c>
       <c r="R7">
-        <v>111.051011250333</v>
+        <v>145.176726569721</v>
       </c>
       <c r="S7">
-        <v>0.02536699010213724</v>
+        <v>0.1163080852196318</v>
       </c>
       <c r="T7">
-        <v>0.0360061143427444</v>
+        <v>0.1387301573861172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -918,10 +918,10 @@
         <v>0.549087</v>
       </c>
       <c r="I8">
-        <v>0.05029248368317861</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="J8">
-        <v>0.07083646284564717</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>0.564518358019</v>
+        <v>0.2881223299955</v>
       </c>
       <c r="R8">
-        <v>3.387110148114</v>
+        <v>1.728733979973</v>
       </c>
       <c r="S8">
-        <v>0.001160558404214425</v>
+        <v>0.002077458389670448</v>
       </c>
       <c r="T8">
-        <v>0.001098204094778983</v>
+        <v>0.001651969587599194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.549087</v>
       </c>
       <c r="I9">
-        <v>0.05029248368317861</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="J9">
-        <v>0.07083646284564717</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>11.49236058819567</v>
+        <v>13.19156747575333</v>
       </c>
       <c r="R9">
-        <v>103.431245293761</v>
+        <v>118.72410728178</v>
       </c>
       <c r="S9">
-        <v>0.02362643388905382</v>
+        <v>0.09511561469683935</v>
       </c>
       <c r="T9">
-        <v>0.0335355545413679</v>
+        <v>0.1134521660454825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.103563</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="H10">
-        <v>0.310689</v>
+        <v>0.452012</v>
       </c>
       <c r="I10">
-        <v>0.0284569138643659</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="J10">
-        <v>0.04008128002493461</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.038119710687</v>
+        <v>0.07634708686</v>
       </c>
       <c r="R10">
-        <v>0.343077396183</v>
+        <v>0.68712378174</v>
       </c>
       <c r="S10">
-        <v>7.83679573491059E-05</v>
+        <v>0.0005504880379340353</v>
       </c>
       <c r="T10">
-        <v>0.0001112361230779794</v>
+        <v>0.0006566120661134659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.103563</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="H11">
-        <v>0.310689</v>
+        <v>0.452012</v>
       </c>
       <c r="I11">
-        <v>0.0284569138643659</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="J11">
-        <v>0.04008128002493461</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>6.981756915339</v>
+        <v>13.27893647499955</v>
       </c>
       <c r="R11">
-        <v>62.835812238051</v>
+        <v>119.510428274996</v>
       </c>
       <c r="S11">
-        <v>0.01435336255974539</v>
+        <v>0.09574557441042353</v>
       </c>
       <c r="T11">
-        <v>0.02037328084444344</v>
+        <v>0.114203570473192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.103563</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="H12">
-        <v>0.310689</v>
+        <v>0.452012</v>
       </c>
       <c r="I12">
-        <v>0.0284569138643659</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="J12">
-        <v>0.04008128002493461</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>0.319420500093</v>
+        <v>0.2371841814246666</v>
       </c>
       <c r="R12">
-        <v>1.916523000558</v>
+        <v>1.423105088548</v>
       </c>
       <c r="S12">
-        <v>0.0006566768655003225</v>
+        <v>0.001710177297280246</v>
       </c>
       <c r="T12">
-        <v>0.0006213950284796171</v>
+        <v>0.001359912140024963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.103563</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="H13">
-        <v>0.310689</v>
+        <v>0.452012</v>
       </c>
       <c r="I13">
-        <v>0.0284569138643659</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="J13">
-        <v>0.04008128002493461</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>6.502703613063001</v>
+        <v>10.85938439236444</v>
       </c>
       <c r="R13">
-        <v>58.524332517567</v>
+        <v>97.73445953127998</v>
       </c>
       <c r="S13">
-        <v>0.01336850648177109</v>
+        <v>0.07829979444122287</v>
       </c>
       <c r="T13">
-        <v>0.01897536802893358</v>
+        <v>0.09339456311759453</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.1664</v>
+        <v>0.407397</v>
       </c>
       <c r="H14">
-        <v>6.3328</v>
+        <v>0.814794</v>
       </c>
       <c r="I14">
-        <v>0.8700595005950792</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="J14">
-        <v>0.816980099526877</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>1.165495900266667</v>
+        <v>0.206434170855</v>
       </c>
       <c r="R14">
-        <v>6.9929754016</v>
+        <v>1.23860502513</v>
       </c>
       <c r="S14">
-        <v>0.002396070992055164</v>
+        <v>0.00148845943375538</v>
       </c>
       <c r="T14">
-        <v>0.002267335245947646</v>
+        <v>0.001183604797653282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.1664</v>
+        <v>0.407397</v>
       </c>
       <c r="H15">
-        <v>6.3328</v>
+        <v>0.814794</v>
       </c>
       <c r="I15">
-        <v>0.8700595005950792</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="J15">
-        <v>0.816980099526877</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>213.4646070192</v>
+        <v>35.904791574817</v>
       </c>
       <c r="R15">
-        <v>1280.7876421152</v>
+        <v>215.428749448902</v>
       </c>
       <c r="S15">
-        <v>0.4388486931546768</v>
+        <v>0.2588855590874799</v>
       </c>
       <c r="T15">
-        <v>0.4152702957996305</v>
+        <v>0.2058626408151421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.1664</v>
+        <v>0.407397</v>
       </c>
       <c r="H16">
-        <v>6.3328</v>
+        <v>0.814794</v>
       </c>
       <c r="I16">
-        <v>0.8700595005950792</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="J16">
-        <v>0.816980099526877</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>9.7661623504</v>
+        <v>0.6413200797315</v>
       </c>
       <c r="R16">
-        <v>39.0646494016</v>
+        <v>2.565280318926</v>
       </c>
       <c r="S16">
-        <v>0.02007764961347413</v>
+        <v>0.004624132326443195</v>
       </c>
       <c r="T16">
-        <v>0.01266594709293125</v>
+        <v>0.0024513691057306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,14 +1455,14 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
         <v>2</v>
       </c>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.1664</v>
+        <v>0.407397</v>
       </c>
       <c r="H17">
-        <v>6.3328</v>
+        <v>0.814794</v>
       </c>
       <c r="I17">
-        <v>0.8700595005950792</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="J17">
-        <v>0.816980099526877</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,276 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>198.8177314330667</v>
+        <v>29.36258743106</v>
       </c>
       <c r="R17">
-        <v>1192.9063885984</v>
+        <v>176.17552458636</v>
       </c>
       <c r="S17">
-        <v>0.4087370868348731</v>
+        <v>0.2117140785375447</v>
       </c>
       <c r="T17">
-        <v>0.3867765213883676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.07979</v>
-      </c>
-      <c r="I18">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="J18">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.3680823333333333</v>
-      </c>
-      <c r="N18">
-        <v>1.104247</v>
-      </c>
-      <c r="O18">
-        <v>0.002753916244137746</v>
-      </c>
-      <c r="P18">
-        <v>0.002775263739301222</v>
-      </c>
-      <c r="Q18">
-        <v>0.009789763125555555</v>
-      </c>
-      <c r="R18">
-        <v>0.08810786813</v>
-      </c>
-      <c r="S18">
-        <v>2.012616898855499E-05</v>
-      </c>
-      <c r="T18">
-        <v>2.856724975905802E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.07979</v>
-      </c>
-      <c r="I19">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="J19">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>67.415553</v>
-      </c>
-      <c r="N19">
-        <v>202.246659</v>
-      </c>
-      <c r="O19">
-        <v>0.5043892893009332</v>
-      </c>
-      <c r="P19">
-        <v>0.5082991569073941</v>
-      </c>
-      <c r="Q19">
-        <v>1.79302899129</v>
-      </c>
-      <c r="R19">
-        <v>16.13726092161</v>
-      </c>
-      <c r="S19">
-        <v>0.00368617749145314</v>
-      </c>
-      <c r="T19">
-        <v>0.005232190642662412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.07979</v>
-      </c>
-      <c r="I20">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="J20">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.084311</v>
-      </c>
-      <c r="N20">
-        <v>6.168622</v>
-      </c>
-      <c r="O20">
-        <v>0.0230761799621083</v>
-      </c>
-      <c r="P20">
-        <v>0.01550337284869761</v>
-      </c>
-      <c r="Q20">
-        <v>0.08203239156333333</v>
-      </c>
-      <c r="R20">
-        <v>0.49219434938</v>
-      </c>
-      <c r="S20">
-        <v>0.0001686453240966714</v>
-      </c>
-      <c r="T20">
-        <v>0.0001595843731911611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.07979</v>
-      </c>
-      <c r="I21">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="J21">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>62.78983433333334</v>
-      </c>
-      <c r="N21">
-        <v>188.369503</v>
-      </c>
-      <c r="O21">
-        <v>0.4697806144928209</v>
-      </c>
-      <c r="P21">
-        <v>0.4734222065046071</v>
-      </c>
-      <c r="Q21">
-        <v>1.670000293818889</v>
-      </c>
-      <c r="R21">
-        <v>15.03000264437</v>
-      </c>
-      <c r="S21">
-        <v>0.003433250395670639</v>
-      </c>
-      <c r="T21">
-        <v>0.00487318384309908</v>
+        <v>0.1683524544942111</v>
       </c>
     </row>
   </sheetData>
